--- a/SI_FILE1.xlsx
+++ b/SI_FILE1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\re-do_V2_Macroevolution\Updates_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46283C9-3ADC-405E-88B2-B72CC637F304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B2471A-3CCB-4367-8055-59E9AE472607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EE70CC94-2EBB-46D1-88B3-91CA5E4DFD9D}"/>
+    <workbookView xWindow="8490" yWindow="375" windowWidth="20310" windowHeight="15060" activeTab="1" xr2:uid="{EE70CC94-2EBB-46D1-88B3-91CA5E4DFD9D}"/>
   </bookViews>
   <sheets>
     <sheet name="SI_FILE1" sheetId="2" r:id="rId1"/>
@@ -4359,7 +4359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A4E96B-E3C0-40DA-93A1-C924DE1F3491}">
   <dimension ref="A1:O418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
@@ -24035,7 +24035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7573C99F-1581-4D47-B770-453B474CC956}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
